--- a/Service/任务记录文档/2015年11月09日至11月15日/服务组-梁艳飞-20151109.xlsx
+++ b/Service/任务记录文档/2015年11月09日至11月15日/服务组-梁艳飞-20151109.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -119,6 +119,9 @@
     <t>完成情况</t>
   </si>
   <si>
+    <t>现阶段主要完成spring注入，安卓组暂时不考虑</t>
+  </si>
+  <si>
     <t>存在问题</t>
   </si>
   <si>
@@ -129,6 +132,21 @@
   </si>
   <si>
     <t>子任务发布表2</t>
+  </si>
+  <si>
+    <t>学习IK Analyzer开源项目</t>
+  </si>
+  <si>
+    <t>编写demo</t>
+  </si>
+  <si>
+    <t>已完成，并上传</t>
+  </si>
+  <si>
+    <t>只能简单的使用，没有深层的研究</t>
+  </si>
+  <si>
+    <t>加深学习</t>
   </si>
   <si>
     <t>子任务发布表3</t>
@@ -156,9 +174,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -188,6 +206,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -200,22 +232,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,23 +263,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -275,6 +294,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -284,46 +326,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,11 +349,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,31 +371,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,151 +527,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,6 +670,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -662,15 +704,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +747,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,162 +766,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1340,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1534,21 +1552,25 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" ht="59" customHeight="1" spans="1:6">
+    <row r="15" ht="38" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" ht="48" customHeight="1" spans="1:6">
+    <row r="16" ht="24" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1556,17 +1578,19 @@
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" ht="39" customHeight="1" spans="1:6">
+    <row r="18" ht="24" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -1579,7 +1603,7 @@
     <row r="19" ht="24.95" customHeight="1"/>
     <row r="20" ht="24.95" customHeight="1" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1591,11 +1615,15 @@
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="18">
+        <v>42325</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
@@ -1603,7 +1631,9 @@
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1613,7 +1643,9 @@
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1623,7 +1655,9 @@
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1631,9 +1665,11 @@
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1641,17 +1677,19 @@
     </row>
     <row r="26" ht="24.95" customHeight="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:6">
+    <row r="27" ht="27" customHeight="1" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -1664,7 +1702,7 @@
     <row r="28" ht="35" customHeight="1"/>
     <row r="29" ht="33" customHeight="1" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1718,7 +1756,7 @@
     </row>
     <row r="34" ht="32" customHeight="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1728,7 +1766,7 @@
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1738,7 +1776,7 @@
     </row>
     <row r="36" ht="47" customHeight="1" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
@@ -1752,7 +1790,7 @@
     <row r="38" ht="28" customHeight="1"/>
     <row r="39" ht="45" customHeight="1" spans="1:6">
       <c r="A39" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1806,7 +1844,7 @@
     </row>
     <row r="44" ht="32" customHeight="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1816,7 +1854,7 @@
     </row>
     <row r="45" ht="28" customHeight="1" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1826,7 +1864,7 @@
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
@@ -1840,7 +1878,7 @@
     <row r="48" ht="24" customHeight="1"/>
     <row r="49" ht="40" customHeight="1" spans="1:6">
       <c r="A49" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1867,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -1879,7 +1917,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -1898,7 +1936,7 @@
     </row>
     <row r="54" ht="29" customHeight="1" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1908,7 +1946,7 @@
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -1918,7 +1956,7 @@
     </row>
     <row r="56" ht="33" customHeight="1" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>8</v>
@@ -2106,7 +2144,7 @@
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2158,7 +2196,7 @@
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2168,7 +2206,7 @@
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2178,7 +2216,7 @@
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2196,7 +2234,7 @@
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2248,7 +2286,7 @@
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2258,7 +2296,7 @@
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2268,7 +2306,7 @@
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
